--- a/dados/totalsoundsc.xlsx
+++ b/dados/totalsoundsc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:461727208#searchVariation=MLB22144397&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=6ab2ba7a-792c-45ee-8ca2-9f67611b9504</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:461727208#searchVariation=MLB22144397&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:461727208#searchVariation=MLB24834408&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=6ab2ba7a-792c-45ee-8ca2-9f67611b9504</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:461727208#searchVariation=MLB24834408&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
         </is>
       </c>
     </row>
@@ -521,17 +551,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>FONTE 70A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:461727208#searchVariation=MLB21455208&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=6ab2ba7a-792c-45ee-8ca2-9f67611b9504</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:461727208#searchVariation=MLB21455208&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
         </is>
       </c>
     </row>
@@ -546,117 +586,163 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:461727208#searchVariation=MLB21320712&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=6ab2ba7a-792c-45ee-8ca2-9f67611b9504</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:461727208#searchVariation=MLB21320712&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>845.87</v>
+        <v>634.4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:461727208#searchVariation=MLB21348561&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=6ab2ba7a-792c-45ee-8ca2-9f67611b9504</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:461727208#searchVariation=MLB21392652&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.4</v>
+        <v>402.79</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:461727208#searchVariation=MLB21392652&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=6ab2ba7a-792c-45ee-8ca2-9f67611b9504</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:461727208#searchVariation=MLB21621306&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t xml:space="preserve">Fonte Carregador Jfa 36a Sci Voltímetro Bivolt Slim </t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>402.79</v>
+        <v>999</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:461727208#searchVariation=MLB21621306&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=6ab2ba7a-792c-45ee-8ca2-9f67611b9504</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-36a-sci-voltimetro-bivolt-slim/p/MLB21474019?pdp_filters=seller_id:461727208#searchVariation=MLB21474019&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa 36a Sci Voltímetro Bivolt Slim </t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>999</v>
+        <v>805.59</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-36a-sci-voltimetro-bivolt-slim/p/MLB21474019?pdp_filters=seller_id:461727208#searchVariation=MLB21474019&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=6ab2ba7a-792c-45ee-8ca2-9f67611b9504</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:461727208#searchVariation=MLB21348561&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
         </is>
       </c>
     </row>
@@ -671,17 +757,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1980747646-fonte-automotiva-jfa-200a-redline-digital-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6ab2ba7a-792c-45ee-8ca2-9f67611b9504</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1980747646-fonte-automotiva-jfa-200a-redline-digital-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
         </is>
       </c>
     </row>
@@ -696,17 +792,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2012826189-fonte-automotiva-carregador-jfa-60a-sci-bivolt-automatico-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6ab2ba7a-792c-45ee-8ca2-9f67611b9504</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2012826189-fonte-automotiva-carregador-jfa-60a-sci-bivolt-automatico-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
         </is>
       </c>
     </row>
@@ -721,17 +827,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130350793-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6ab2ba7a-792c-45ee-8ca2-9f67611b9504</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130350793-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
         </is>
       </c>
     </row>
@@ -746,17 +858,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1365567951-fonte-carregador-de-bateria-jfa-120a-sci-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6ab2ba7a-792c-45ee-8ca2-9f67611b9504</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1365567951-fonte-carregador-de-bateria-jfa-120a-sci-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
         </is>
       </c>
     </row>
@@ -771,17 +893,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2181043055-fonte-automotiva-carregador-jfa-60a-storm-bivolt-automatico-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6ab2ba7a-792c-45ee-8ca2-9f67611b9504</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2181043055-fonte-automotiva-carregador-jfa-60a-storm-bivolt-automatico-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
         </is>
       </c>
     </row>
@@ -796,17 +928,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130368709-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6ab2ba7a-792c-45ee-8ca2-9f67611b9504</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130368709-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
         </is>
       </c>
     </row>
@@ -821,17 +959,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1981516981-fonte-automotiva-jfa-redline-f-120a-bivolt-voltimetro-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6ab2ba7a-792c-45ee-8ca2-9f67611b9504</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1981516981-fonte-automotiva-jfa-redline-f-120a-bivolt-voltimetro-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
         </is>
       </c>
     </row>
@@ -846,17 +990,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3719340954-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6ab2ba7a-792c-45ee-8ca2-9f67611b9504</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3719340954-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
         </is>
       </c>
     </row>
@@ -871,17 +1025,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1981503674-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ce67b96-6119-453e-971c-b333d4b944e7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1981503674-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D624344f3-13a8-474c-ba58-7c5950dd547a</t>
         </is>
       </c>
     </row>
@@ -896,17 +1060,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2012824590-fonte-jfa-200a-redline-carregador-digital-de-bateria-bivolt-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ce67b96-6119-453e-971c-b333d4b944e7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2012824590-fonte-jfa-200a-redline-carregador-digital-de-bateria-bivolt-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D624344f3-13a8-474c-ba58-7c5950dd547a</t>
         </is>
       </c>
     </row>
@@ -921,17 +1095,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1365420416-controle-jfa-k600-cx-preto-tc-cinza-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ce67b96-6119-453e-971c-b333d4b944e7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1365420416-controle-jfa-k600-cx-preto-tc-cinza-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D624344f3-13a8-474c-ba58-7c5950dd547a</t>
         </is>
       </c>
     </row>
@@ -946,17 +1126,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130350448-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ce67b96-6119-453e-971c-b333d4b944e7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130350448-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D624344f3-13a8-474c-ba58-7c5950dd547a</t>
         </is>
       </c>
     </row>
@@ -971,17 +1157,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130369077-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ce67b96-6119-453e-971c-b333d4b944e7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130369077-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D624344f3-13a8-474c-ba58-7c5950dd547a</t>
         </is>
       </c>
     </row>
@@ -996,17 +1188,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3719372482-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ce67b96-6119-453e-971c-b333d4b944e7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3719372482-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D624344f3-13a8-474c-ba58-7c5950dd547a</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1223,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3467529233-voltimetro-jfa-vs5-hi-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1a7815bb-9e51-449c-b613-edc34e3e6e39</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3467529233-voltimetro-jfa-vs5-hi-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d3def06-b75d-4ba0-851f-1704e0e2c53d</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1254,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2012767774-fonte-automotiva-carregador-jfa-60a-automatico-sci-bivolt-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1a7815bb-9e51-449c-b613-edc34e3e6e39</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2012767774-fonte-automotiva-carregador-jfa-60a-automatico-sci-bivolt-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d3def06-b75d-4ba0-851f-1704e0e2c53d</t>
         </is>
       </c>
     </row>
@@ -1071,49 +1289,65 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1365574990-fonte-carregador-de-bateria-jfa-f-60-red-line-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1a7815bb-9e51-449c-b613-edc34e3e6e39</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1365574990-fonte-carregador-de-bateria-jfa-f-60-red-line-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d3def06-b75d-4ba0-851f-1704e0e2c53d</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>61.62</v>
+        <v>845.87</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130400731-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1a7815bb-9e51-449c-b613-edc34e3e6e39</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1980747637-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d3def06-b75d-4ba0-851f-1704e0e2c53d</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Completo O Melhor</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1121,24 +1355,30 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130362530-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1a7815bb-9e51-449c-b613-edc34e3e6e39</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130400731-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d3def06-b75d-4ba0-851f-1704e0e2c53d</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Melhor</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Completo O Melhor</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1146,17 +1386,54 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130376870-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1a7815bb-9e51-449c-b613-edc34e3e6e39</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130362530-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d3def06-b75d-4ba0-851f-1704e0e2c53d</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Melhor</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130376870-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d3def06-b75d-4ba0-851f-1704e0e2c53d</t>
         </is>
       </c>
     </row>

--- a/dados/totalsoundsc.xlsx
+++ b/dados/totalsoundsc.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>499.46</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -501,23 +501,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:461727208#searchVariation=MLB22144397&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:461727208#searchVariation=MLB22144397&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=f056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>493.42</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -536,23 +536,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:461727208#searchVariation=MLB24834408&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:461727208#searchVariation=MLB21455208&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=f056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>624.33</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:461727208#searchVariation=MLB21455208&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:461727208#searchVariation=MLB24834408&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=f056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
         </is>
       </c>
     </row>
@@ -581,14 +581,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>443.07</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:461727208#searchVariation=MLB21320712&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:461727208#searchVariation=MLB21320712&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=f056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
         </is>
       </c>
     </row>
@@ -616,14 +616,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>634.4</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -641,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:461727208#searchVariation=MLB21392652&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:461727208#searchVariation=MLB21392652&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=f056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
         </is>
       </c>
     </row>
@@ -651,14 +651,14 @@
           <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>402.79</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -666,7 +666,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:461727208#searchVariation=MLB21621306&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:461727208#searchVariation=MLB21621306&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=f056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
         </is>
       </c>
     </row>
@@ -686,15 +686,19 @@
           <t xml:space="preserve">Fonte Carregador Jfa 36a Sci Voltímetro Bivolt Slim </t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>999</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>NA</t>
@@ -707,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-36a-sci-voltimetro-bivolt-slim/p/MLB21474019?pdp_filters=seller_id:461727208#searchVariation=MLB21474019&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-36a-sci-voltimetro-bivolt-slim/p/MLB21474019?pdp_filters=seller_id:461727208#searchVariation=MLB21474019&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=f056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
         </is>
       </c>
     </row>
@@ -717,14 +721,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>805.59</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -742,7 +746,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:461727208#searchVariation=MLB21348561&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:461727208#searchVariation=MLB21348561&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=f056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
         </is>
       </c>
     </row>
@@ -752,14 +756,14 @@
           <t>Fonte Automotiva Jfa 200a Redline Digital</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>805.59</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -777,7 +781,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1980747646-fonte-automotiva-jfa-200a-redline-digital-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1980747646-fonte-automotiva-jfa-200a-redline-digital-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
         </is>
       </c>
     </row>
@@ -787,14 +791,14 @@
           <t xml:space="preserve">Fonte Automotiva Carregador Jfa 60a Sci Bivolt Automático </t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>473.28</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -812,7 +816,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2012826189-fonte-automotiva-carregador-jfa-60a-sci-bivolt-automatico-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2012826189-fonte-automotiva-carregador-jfa-60a-sci-bivolt-automatico-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
         </is>
       </c>
     </row>
@@ -822,13 +826,13 @@
           <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Melhor</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>61.62</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -843,7 +847,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130350793-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2130350793-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
         </is>
       </c>
     </row>
@@ -853,14 +857,14 @@
           <t>Fonte Carregador De Bateria Jfa 120a Sci</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>634.4</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -878,7 +882,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1365567951-fonte-carregador-de-bateria-jfa-120a-sci-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1365567951-fonte-carregador-de-bateria-jfa-120a-sci-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
         </is>
       </c>
     </row>
@@ -888,14 +892,14 @@
           <t>Fonte Automotiva Carregador Jfa 60a Storm Bivolt Automatico</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>443.07</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -913,7 +917,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2181043055-fonte-automotiva-carregador-jfa-60a-storm-bivolt-automatico-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2181043055-fonte-automotiva-carregador-jfa-60a-storm-bivolt-automatico-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
         </is>
       </c>
     </row>
@@ -923,13 +927,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>61.62</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -944,7 +948,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130368709-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2130368709-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
         </is>
       </c>
     </row>
@@ -954,15 +958,19 @@
           <t>Fonte Automotiva Jfa Redline F 120a Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>805.59</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -975,7 +983,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1981516981-fonte-automotiva-jfa-redline-f-120a-bivolt-voltimetro-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1981516981-fonte-automotiva-jfa-redline-f-120a-bivolt-voltimetro-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
         </is>
       </c>
     </row>
@@ -985,14 +993,14 @@
           <t>Fonte Carregador Jfa 70a Slim Bivolt C/ Voltímetro Full</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>551.1900000000001</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1010,7 +1018,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3719340954-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d31aa1a-8336-4674-8dd9-d17cc2c22719</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3719340954-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
         </is>
       </c>
     </row>
@@ -1020,14 +1028,14 @@
           <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>634.4</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1045,7 +1053,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1981503674-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D624344f3-13a8-474c-ba58-7c5950dd547a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1981503674-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4195bd8c-213f-4fd8-bd5e-33ecd45e459d</t>
         </is>
       </c>
     </row>
@@ -1055,14 +1063,14 @@
           <t xml:space="preserve">Fonte Jfa 200a Redline Carregador Digital De Bateria Bivolt </t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>805.59</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1080,7 +1088,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2012824590-fonte-jfa-200a-redline-carregador-digital-de-bateria-bivolt-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D624344f3-13a8-474c-ba58-7c5950dd547a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2012824590-fonte-jfa-200a-redline-carregador-digital-de-bateria-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4195bd8c-213f-4fd8-bd5e-33ecd45e459d</t>
         </is>
       </c>
     </row>
@@ -1090,13 +1098,13 @@
           <t>Controle Jfa K600 Cx Preto / Tc Cinza</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>97</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1111,7 +1119,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1365420416-controle-jfa-k600-cx-preto-tc-cinza-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D624344f3-13a8-474c-ba58-7c5950dd547a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1365420416-controle-jfa-k600-cx-preto-tc-cinza-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4195bd8c-213f-4fd8-bd5e-33ecd45e459d</t>
         </is>
       </c>
     </row>
@@ -1121,13 +1129,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>61.62</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -1142,7 +1150,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130350448-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D624344f3-13a8-474c-ba58-7c5950dd547a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2130350448-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4195bd8c-213f-4fd8-bd5e-33ecd45e459d</t>
         </is>
       </c>
     </row>
@@ -1152,13 +1160,13 @@
           <t>Controle Longa Distancia Jfa K1200 Preto Completo O Melhor</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>61.62</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1173,7 +1181,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130369077-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D624344f3-13a8-474c-ba58-7c5950dd547a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2130369077-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4195bd8c-213f-4fd8-bd5e-33ecd45e459d</t>
         </is>
       </c>
     </row>
@@ -1183,14 +1191,14 @@
           <t>Fonte Carregador Jfa 70a Slim Bivolt C/ Voltímetro Full</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>493.42</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1208,7 +1216,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3719372482-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D624344f3-13a8-474c-ba58-7c5950dd547a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3719372482-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4195bd8c-213f-4fd8-bd5e-33ecd45e459d</t>
         </is>
       </c>
     </row>
@@ -1218,13 +1226,13 @@
           <t xml:space="preserve">Voltímetro Jfa Vs5 - Hi </t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>50.94</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
@@ -1239,7 +1247,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3467529233-voltimetro-jfa-vs5-hi-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d3def06-b75d-4ba0-851f-1704e0e2c53d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3467529233-voltimetro-jfa-vs5-hi-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De0c3e55d-f84a-4d59-83ca-4255b241521d</t>
         </is>
       </c>
     </row>
@@ -1249,14 +1257,14 @@
           <t>Fonte Automotiva Carregador Jfa 60a Automático Sci Bivolt</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>443.07</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1274,7 +1282,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2012767774-fonte-automotiva-carregador-jfa-60a-automatico-sci-bivolt-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d3def06-b75d-4ba0-851f-1704e0e2c53d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2012767774-fonte-automotiva-carregador-jfa-60a-automatico-sci-bivolt-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De0c3e55d-f84a-4d59-83ca-4255b241521d</t>
         </is>
       </c>
     </row>
@@ -1284,15 +1292,19 @@
           <t xml:space="preserve">Fonte Carregador De Bateria Jfa F-60 - Red Line    </t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>519.7</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1305,7 +1317,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1365574990-fonte-carregador-de-bateria-jfa-f-60-red-line-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d3def06-b75d-4ba0-851f-1704e0e2c53d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1365574990-fonte-carregador-de-bateria-jfa-f-60-red-line-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De0c3e55d-f84a-4d59-83ca-4255b241521d</t>
         </is>
       </c>
     </row>
@@ -1315,14 +1327,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>845.87</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1330,7 +1342,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1340,7 +1352,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1980747637-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d3def06-b75d-4ba0-851f-1704e0e2c53d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1980747637-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De0c3e55d-f84a-4d59-83ca-4255b241521d</t>
         </is>
       </c>
     </row>
@@ -1350,13 +1362,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>61.62</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
@@ -1371,7 +1383,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130400731-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d3def06-b75d-4ba0-851f-1704e0e2c53d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2130400731-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De0c3e55d-f84a-4d59-83ca-4255b241521d</t>
         </is>
       </c>
     </row>
@@ -1381,13 +1393,13 @@
           <t>Controle Longa Distancia Jfa K1200 Preto Completo O Melhor</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>61.62</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
@@ -1402,7 +1414,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130362530-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d3def06-b75d-4ba0-851f-1704e0e2c53d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2130362530-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De0c3e55d-f84a-4d59-83ca-4255b241521d</t>
         </is>
       </c>
     </row>
@@ -1412,13 +1424,13 @@
           <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Melhor</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>61.62</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1433,7 +1445,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130376870-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d3def06-b75d-4ba0-851f-1704e0e2c53d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2130376870-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De0c3e55d-f84a-4d59-83ca-4255b241521d</t>
         </is>
       </c>
     </row>

--- a/dados/totalsoundsc.xlsx
+++ b/dados/totalsoundsc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:461727208#searchVariation=MLB22144397&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=f056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:461727208#searchVariation=MLB22144397&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=d540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:461727208#searchVariation=MLB21455208&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=f056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:461727208#searchVariation=MLB21455208&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=d540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:461727208#searchVariation=MLB24834408&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=f056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:461727208#searchVariation=MLB24834408&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=d540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:461727208#searchVariation=MLB21320712&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=f056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:461727208#searchVariation=MLB21320712&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=d540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:461727208#searchVariation=MLB21392652&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=f056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:461727208#searchVariation=MLB21392652&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=d540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:461727208#searchVariation=MLB21621306&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=f056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:461727208#searchVariation=MLB21621306&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=d540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-36a-sci-voltimetro-bivolt-slim/p/MLB21474019?pdp_filters=seller_id:461727208#searchVariation=MLB21474019&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=f056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-36a-sci-voltimetro-bivolt-slim/p/MLB21474019?pdp_filters=seller_id:461727208#searchVariation=MLB21474019&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=d540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
         </is>
       </c>
     </row>
@@ -746,23 +746,23 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:461727208#searchVariation=MLB21348561&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=f056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:461727208#searchVariation=MLB21348561&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=d540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Redline Digital</t>
+          <t xml:space="preserve">Fonte Automotiva Carregador Jfa 60a Sci Bivolt Automático </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>805.59</v>
+        <v>473.28</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -771,33 +771,33 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1980747646-fonte-automotiva-jfa-200a-redline-digital-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2012826189-fonte-automotiva-carregador-jfa-60a-sci-bivolt-automatico-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva Carregador Jfa 60a Sci Bivolt Automático </t>
+          <t>Fonte Automotiva Jfa 200a Redline Digital</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>473.28</v>
+        <v>805.59</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -806,17 +806,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2012826189-fonte-automotiva-carregador-jfa-60a-sci-bivolt-automatico-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1980747646-fonte-automotiva-jfa-200a-redline-digital-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
         </is>
       </c>
     </row>
@@ -828,13 +828,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>61.62</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -847,23 +851,23 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130350793-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2130350793-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 120a Sci</t>
+          <t>Fonte Automotiva Carregador Jfa 60a Storm Bivolt Automatico</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>634.4</v>
+        <v>443.07</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -882,23 +886,23 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1365567951-fonte-carregador-de-bateria-jfa-120a-sci-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2181043055-fonte-automotiva-carregador-jfa-60a-storm-bivolt-automatico-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador Jfa 60a Storm Bivolt Automatico</t>
+          <t>Fonte Carregador De Bateria Jfa 120a Sci</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>443.07</v>
+        <v>634.4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -917,7 +921,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2181043055-fonte-automotiva-carregador-jfa-60a-storm-bivolt-automatico-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1365567951-fonte-carregador-de-bateria-jfa-120a-sci-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
         </is>
       </c>
     </row>
@@ -929,13 +933,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>61.62</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -948,7 +956,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130368709-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2130368709-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
         </is>
       </c>
     </row>
@@ -983,7 +991,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1981516981-fonte-automotiva-jfa-redline-f-120a-bivolt-voltimetro-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1981516981-fonte-automotiva-jfa-redline-f-120a-bivolt-voltimetro-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1026,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3719340954-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df056bd2b-3db7-47a2-9fa3-9a80406ae11c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3719340954-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
         </is>
       </c>
     </row>
@@ -1053,27 +1061,27 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1981503674-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4195bd8c-213f-4fd8-bd5e-33ecd45e459d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1981503674-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D214e4eb6-c468-4caa-9657-f6144bcb4f33</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Jfa 200a Redline Carregador Digital De Bateria Bivolt </t>
+          <t>Controle Jfa K600 Cx Preto / Tc Cinza</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>805.59</v>
+        <v>97</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1088,25 +1096,29 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2012824590-fonte-jfa-200a-redline-carregador-digital-de-bateria-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4195bd8c-213f-4fd8-bd5e-33ecd45e459d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1365420416-controle-jfa-k600-cx-preto-tc-cinza-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D214e4eb6-c468-4caa-9657-f6144bcb4f33</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Controle Jfa K600 Cx Preto / Tc Cinza</t>
+          <t xml:space="preserve">Fonte Jfa 200a Redline Carregador Digital De Bateria Bivolt </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>97</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>805.59</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1119,7 +1131,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1365420416-controle-jfa-k600-cx-preto-tc-cinza-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4195bd8c-213f-4fd8-bd5e-33ecd45e459d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2012824590-fonte-jfa-200a-redline-carregador-digital-de-bateria-bivolt-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D214e4eb6-c468-4caa-9657-f6144bcb4f33</t>
         </is>
       </c>
     </row>
@@ -1131,13 +1143,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>61.62</v>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1150,7 +1166,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130350448-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4195bd8c-213f-4fd8-bd5e-33ecd45e459d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2130350448-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D214e4eb6-c468-4caa-9657-f6144bcb4f33</t>
         </is>
       </c>
     </row>
@@ -1162,13 +1178,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>61.62</v>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1181,7 +1201,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130369077-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4195bd8c-213f-4fd8-bd5e-33ecd45e459d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2130369077-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D214e4eb6-c468-4caa-9657-f6144bcb4f33</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1236,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3719372482-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4195bd8c-213f-4fd8-bd5e-33ecd45e459d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3719372482-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D214e4eb6-c468-4caa-9657-f6144bcb4f33</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1267,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3467529233-voltimetro-jfa-vs5-hi-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De0c3e55d-f84a-4d59-83ca-4255b241521d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3467529233-voltimetro-jfa-vs5-hi-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22558057-3d0a-4537-9897-ce77534f0706</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1302,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2012767774-fonte-automotiva-carregador-jfa-60a-automatico-sci-bivolt-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De0c3e55d-f84a-4d59-83ca-4255b241521d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2012767774-fonte-automotiva-carregador-jfa-60a-automatico-sci-bivolt-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22558057-3d0a-4537-9897-ce77534f0706</t>
         </is>
       </c>
     </row>
@@ -1317,23 +1337,23 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1365574990-fonte-carregador-de-bateria-jfa-f-60-red-line-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De0c3e55d-f84a-4d59-83ca-4255b241521d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1365574990-fonte-carregador-de-bateria-jfa-f-60-red-line-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22558057-3d0a-4537-9897-ce77534f0706</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>845.87</v>
+        <v>61.62</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1347,30 +1367,34 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1980747637-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De0c3e55d-f84a-4d59-83ca-4255b241521d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2130400731-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22558057-3d0a-4537-9897-ce77534f0706</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Completo O Melhor</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>61.62</v>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1383,25 +1407,29 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130400731-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De0c3e55d-f84a-4d59-83ca-4255b241521d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2130362530-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22558057-3d0a-4537-9897-ce77534f0706</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Completo O Melhor</t>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Melhor</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>61.62</v>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1414,38 +1442,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130362530-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De0c3e55d-f84a-4d59-83ca-4255b241521d</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Melhor</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>61.62</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130376870-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De0c3e55d-f84a-4d59-83ca-4255b241521d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2130376870-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22558057-3d0a-4537-9897-ce77534f0706</t>
         </is>
       </c>
     </row>

--- a/dados/totalsoundsc.xlsx
+++ b/dados/totalsoundsc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,976 +483,1211 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>499.46</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>493.42</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:461727208#searchVariation=MLB22144397&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=d540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:461727208#searchVariation=MLB21455208&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=cb640f17-0e2d-4c8a-a985-2ac4cf3a4556</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>493.42</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:461727208#searchVariation=MLB21455208&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=d540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:461727208#searchVariation=MLB21320712&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=cb640f17-0e2d-4c8a-a985-2ac4cf3a4556</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>624.33</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:461727208#searchVariation=MLB24834408&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=d540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:461727208#searchVariation=MLB24834408&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=cb640f17-0e2d-4c8a-a985-2ac4cf3a4556</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>443.07</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>634.4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:461727208#searchVariation=MLB21320712&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=d540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:461727208#searchVariation=MLB21392652&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=cb640f17-0e2d-4c8a-a985-2ac4cf3a4556</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>634.4</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>402.79</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:461727208#searchVariation=MLB21392652&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=d540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:461727208#searchVariation=MLB21621306&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=cb640f17-0e2d-4c8a-a985-2ac4cf3a4556</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Carregador Jfa 36a Sci Voltímetro Bivolt Slim </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>FONTE 40A STORM</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+      <c r="E7" t="n">
+        <v>999</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:461727208#searchVariation=MLB21621306&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=d540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-36a-sci-voltimetro-bivolt-slim/p/MLB21474019?pdp_filters=seller_id:461727208#searchVariation=MLB21474019&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=cb640f17-0e2d-4c8a-a985-2ac4cf3a4556</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa 36a Sci Voltímetro Bivolt Slim </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>999</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>805.59</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-36a-sci-voltimetro-bivolt-slim/p/MLB21474019?pdp_filters=seller_id:461727208#searchVariation=MLB21474019&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=d540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:461727208#searchVariation=MLB21348561&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=cb640f17-0e2d-4c8a-a985-2ac4cf3a4556</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>805.59</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Melhor</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>61.62</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:461727208#searchVariation=MLB21348561&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=d540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130350793-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcb640f17-0e2d-4c8a-a985-2ac4cf3a4556</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva Carregador Jfa 60a Sci Bivolt Automático </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>473.28</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a Redline Digital</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>805.59</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2012826189-fonte-automotiva-carregador-jfa-60a-sci-bivolt-automatico-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1980747646-fonte-automotiva-jfa-200a-redline-digital-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcb640f17-0e2d-4c8a-a985-2ac4cf3a4556</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Redline Digital</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>805.59</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Automotiva Carregador Jfa 60a Sci Bivolt Automático </t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>473.28</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1980747646-fonte-automotiva-jfa-200a-redline-digital-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2012826189-fonte-automotiva-carregador-jfa-60a-sci-bivolt-automatico-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcb640f17-0e2d-4c8a-a985-2ac4cf3a4556</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Melhor</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="E12" t="n">
         <v>61.62</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130350793-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130368709-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcb640f17-0e2d-4c8a-a985-2ac4cf3a4556</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Carregador Jfa 60a Storm Bivolt Automatico</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>FONTE 60A STORM</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="E13" t="n">
         <v>443.07</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2181043055-fonte-automotiva-carregador-jfa-60a-storm-bivolt-automatico-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2181043055-fonte-automotiva-carregador-jfa-60a-storm-bivolt-automatico-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcb640f17-0e2d-4c8a-a985-2ac4cf3a4556</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 120a Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Redline F 120a Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E14" t="n">
+        <v>805.59</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1365567951-fonte-carregador-de-bateria-jfa-120a-sci-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1981516981-fonte-automotiva-jfa-redline-f-120a-bivolt-voltimetro-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcb640f17-0e2d-4c8a-a985-2ac4cf3a4556</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>61.62</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Slim Bivolt C/ Voltímetro Full</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>551.1900000000001</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130368709-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3719340954-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcb640f17-0e2d-4c8a-a985-2ac4cf3a4556</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Redline F 120a Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>805.59</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Carregador De Bateria Jfa F-60 - Red Line    </t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>519.7</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1981516981-fonte-automotiva-jfa-redline-f-120a-bivolt-voltimetro-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1365574990-fonte-carregador-de-bateria-jfa-f-60-red-line-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcb640f17-0e2d-4c8a-a985-2ac4cf3a4556</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Slim Bivolt C/ Voltímetro Full</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>551.1900000000001</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Controle Jfa K600 Cx Preto / Tc Cinza</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>97</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3719340954-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd540cbf9-2b1c-46ce-9594-afb5473cc48f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1365420416-controle-jfa-k600-cx-preto-tc-cinza-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd98d30f9-8ad0-433d-94bd-7958fe059d68</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="E18" t="n">
         <v>634.4</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1981503674-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D214e4eb6-c468-4caa-9657-f6144bcb4f33</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1981503674-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd98d30f9-8ad0-433d-94bd-7958fe059d68</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Controle Jfa K600 Cx Preto / Tc Cinza</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>97</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Jfa 200a Redline Carregador Digital De Bateria Bivolt </t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>805.59</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1365420416-controle-jfa-k600-cx-preto-tc-cinza-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D214e4eb6-c468-4caa-9657-f6144bcb4f33</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2012824590-fonte-jfa-200a-redline-carregador-digital-de-bateria-bivolt-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd98d30f9-8ad0-433d-94bd-7958fe059d68</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Jfa 200a Redline Carregador Digital De Bateria Bivolt </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>805.59</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>61.62</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2012824590-fonte-jfa-200a-redline-carregador-digital-de-bateria-bivolt-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D214e4eb6-c468-4caa-9657-f6144bcb4f33</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130350448-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd98d30f9-8ad0-433d-94bd-7958fe059d68</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>61.62</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Slim Bivolt C/ Voltímetro Full</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>493.42</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130350448-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D214e4eb6-c468-4caa-9657-f6144bcb4f33</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3719372482-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd98d30f9-8ad0-433d-94bd-7958fe059d68</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa K1200 Preto Completo O Melhor</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="E22" t="n">
         <v>61.62</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130369077-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D214e4eb6-c468-4caa-9657-f6144bcb4f33</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130369077-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd98d30f9-8ad0-433d-94bd-7958fe059d68</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Slim Bivolt C/ Voltímetro Full</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>493.42</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voltímetro Jfa Vs5 - Hi </t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>50.94</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3719372482-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D214e4eb6-c468-4caa-9657-f6144bcb4f33</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3467529233-voltimetro-jfa-vs5-hi-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df5ef4e10-082c-4075-97e6-37da5e05917a</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Voltímetro Jfa Vs5 - Hi </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>50.94</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Carregador Jfa 60a Automático Sci Bivolt</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>443.07</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3467529233-voltimetro-jfa-vs5-hi-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22558057-3d0a-4537-9897-ce77534f0706</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2012767774-fonte-automotiva-carregador-jfa-60a-automatico-sci-bivolt-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df5ef4e10-082c-4075-97e6-37da5e05917a</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador Jfa 60a Automático Sci Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>443.07</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 120a Sci</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>634.4</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2012767774-fonte-automotiva-carregador-jfa-60a-automatico-sci-bivolt-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22558057-3d0a-4537-9897-ce77534f0706</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1365567951-fonte-carregador-de-bateria-jfa-120a-sci-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df5ef4e10-082c-4075-97e6-37da5e05917a</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador De Bateria Jfa F-60 - Red Line    </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>519.7</v>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>61.62</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1365574990-fonte-carregador-de-bateria-jfa-f-60-red-line-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22558057-3d0a-4537-9897-ce77534f0706</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130400731-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df5ef4e10-082c-4075-97e6-37da5e05917a</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Completo O Melhor</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="E27" t="n">
         <v>61.62</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130400731-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22558057-3d0a-4537-9897-ce77534f0706</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130362530-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df5ef4e10-082c-4075-97e6-37da5e05917a</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Completo O Melhor</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Melhor</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="E28" t="n">
         <v>61.62</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130362530-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22558057-3d0a-4537-9897-ce77534f0706</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Melhor</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>61.62</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2130376870-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22558057-3d0a-4537-9897-ce77534f0706</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130376870-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df5ef4e10-082c-4075-97e6-37da5e05917a</t>
         </is>
       </c>
     </row>

--- a/dados/totalsoundsc.xlsx
+++ b/dados/totalsoundsc.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,1183 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>nome</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>preco</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>tipo</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:461727208#wid=MLB3211894478&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=a970fe65-d071-476a-b41d-5ff1c9fd8f49</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Automotiva Carregador Jfa 60a Sci Bivolt Automático </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2012826189-fonte-automotiva-carregador-jfa-60a-sci-bivolt-automatico-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da970fe65-d071-476a-b41d-5ff1c9fd8f49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>829.76</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:461727208#wid=MLB3204442627&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=a970fe65-d071-476a-b41d-5ff1c9fd8f49</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Controle Jfa K600 Cx Preto / Tc Cinza</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>97</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1365420416-controle-jfa-k600-cx-preto-tc-cinza-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D07ede292-b444-4427-9300-60094244782d</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130368709-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da970fe65-d071-476a-b41d-5ff1c9fd8f49</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Completo O Melhor</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130369077-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D07ede292-b444-4427-9300-60094244782d</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Carregador Jfa 36a Sci Voltímetro Bivolt Slim </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>999</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-36a-sci-voltimetro-bivolt-slim/p/MLB21474019?pdp_filters=seller_id:461727208#wid=MLB4287897410&amp;sid=search&amp;searchVariation=MLB21474019&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=a970fe65-d071-476a-b41d-5ff1c9fd8f49</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Redline F 120a Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1981516981-fonte-automotiva-jfa-redline-f-120a-bivolt-voltimetro-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da970fe65-d071-476a-b41d-5ff1c9fd8f49</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130350448-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da970fe65-d071-476a-b41d-5ff1c9fd8f49</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>414.87</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:461727208#wid=MLB3204516742&amp;sid=search&amp;searchVariation=MLB21621306&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=a970fe65-d071-476a-b41d-5ff1c9fd8f49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Slim Bivolt C/ Voltímetro Full</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3719372482-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D07ede292-b444-4427-9300-60094244782d</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Jfa 200a Redline Carregador Digital De Bateria Bivolt </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>829.76</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2012824590-fonte-jfa-200a-redline-carregador-digital-de-bateria-bivolt-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da970fe65-d071-476a-b41d-5ff1c9fd8f49</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:461727208#wid=MLB3223847464&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=a970fe65-d071-476a-b41d-5ff1c9fd8f49</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Melhor</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130350793-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da483aca2-b32f-4c85-ab82-82614abec0e6</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Slim Bivolt C/ Voltímetro Full</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>539.34</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3719340954-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da970fe65-d071-476a-b41d-5ff1c9fd8f49</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1981503674-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da970fe65-d071-476a-b41d-5ff1c9fd8f49</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130400731-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da483aca2-b32f-4c85-ab82-82614abec0e6</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Carregador Jfa 60a Storm Bivolt Automatico</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2181043055-fonte-automotiva-carregador-jfa-60a-storm-bivolt-automatico-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da483aca2-b32f-4c85-ab82-82614abec0e6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:461727208#wid=MLB4281358240&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=a970fe65-d071-476a-b41d-5ff1c9fd8f49</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a Redline Digital</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>829.76</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1980747646-fonte-automotiva-jfa-200a-redline-digital-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da483aca2-b32f-4c85-ab82-82614abec0e6</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 120a Sci</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1365567951-fonte-carregador-de-bateria-jfa-120a-sci-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da483aca2-b32f-4c85-ab82-82614abec0e6</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voltímetro Jfa Vs5 - Hi </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>50.94</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3467529233-voltimetro-jfa-vs5-hi-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da483aca2-b32f-4c85-ab82-82614abec0e6</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Carregador Jfa 60a Automático Sci Bivolt</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2012767774-fonte-automotiva-carregador-jfa-60a-automatico-sci-bivolt-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da483aca2-b32f-4c85-ab82-82614abec0e6</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Melhor</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130376870-controle-longa-distancia-jfa-k1200-vermelho-completo-melhor-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da483aca2-b32f-4c85-ab82-82614abec0e6</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>totalsoundsc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Completo O Melhor</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2130362530-controle-longa-distancia-jfa-k1200-preto-completo-o-melhor-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2f8c1b20-9de3-4ee1-98d5-ba865d863630</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>